--- a/data/carbon fee.xlsx
+++ b/data/carbon fee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="993">
   <si>
     <t>﻿標題</t>
   </si>
@@ -130,7 +130,7 @@
 </t>
   </si>
   <si>
-    <t>55</t>
+    <t>47</t>
   </si>
   <si>
     <t>25</t>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>0</t>
@@ -227,13 +224,16 @@
 </t>
   </si>
   <si>
-    <t>33</t>
+    <t>30</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Second Filing Fee For Carbon Pipeline Project Raises Total Potential Fees To $1.47 Million</t>
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t>43</t>
+    <t>35</t>
   </si>
   <si>
     <t>18</t>
@@ -385,7 +385,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>9</t>
+    <t>1</t>
   </si>
   <si>
     <t>Canada Conservative likely to unseat Trudeau has Trump-like tendencies</t>
@@ -451,10 +451,13 @@
 </t>
   </si>
   <si>
-    <t>41</t>
+    <t>31</t>
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>CANADA CARBON ANNOUNCES CLOSING OF PRIVATE PLACEMENT OF</t>
@@ -516,10 +519,10 @@
 </t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Gorst, Chohan &amp; Kid Chris Win At Buffalo’s Pro-Am Classic</t>
@@ -595,9 +598,6 @@
 </t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Conservatives, conspiracies, and the coming election</t>
   </si>
   <si>
@@ -665,7 +665,7 @@
 </t>
   </si>
   <si>
-    <t>108</t>
+    <t>103</t>
   </si>
   <si>
     <t>34</t>
@@ -749,13 +749,16 @@
 </t>
   </si>
   <si>
-    <t>80</t>
+    <t>79</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>12</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Year-end demand prompts renewable energy offset trades</t>
@@ -913,10 +916,13 @@
 </t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>Brits face £20 a year extra on energy bills for 'carbon capture' tech</t>
@@ -1046,10 +1052,7 @@
 </t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>9</t>
   </si>
   <si>
     <t>REI, Allbirds and 20 other companies start climate transition funds</t>
@@ -1111,10 +1114,13 @@
 </t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>News Release: Higher taxes will hammer British Columbians in 2025</t>
@@ -1184,10 +1190,7 @@
 </t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>87</t>
   </si>
   <si>
     <t>News Rail freight review: Ukrainian Railways hikes tariffs as war drives up costs</t>
@@ -1244,7 +1247,7 @@
 </t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>Electric vehicle fees to increase</t>
@@ -1307,6 +1310,9 @@
     <t xml:space="preserve">費用增加可能影響電動車銷售。
 可能引發公眾抗議。
 </t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
   <si>
     <t>Air Travel Forecast to 2030: The Recovery and the Carbon Challenge</t>
@@ -1387,7 +1393,7 @@
 </t>
   </si>
   <si>
-    <t>71</t>
+    <t>70</t>
   </si>
   <si>
     <t>28</t>
@@ -1443,7 +1449,7 @@
 </t>
   </si>
   <si>
-    <t>29</t>
+    <t>22</t>
   </si>
   <si>
     <t>Online registration for Little League Baseball is open</t>
@@ -1656,7 +1662,7 @@
 </t>
   </si>
   <si>
-    <t>99</t>
+    <t>91</t>
   </si>
   <si>
     <t>【觀點】白馬非馬！碳費、碳定價差在哪？台灣碳費是「不純正的馬」</t>
@@ -1707,7 +1713,7 @@
 </t>
   </si>
   <si>
-    <t>127</t>
+    <t>126</t>
   </si>
   <si>
     <t>66</t>
@@ -1798,9 +1804,6 @@
 </t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Nepal created a forest fund to do everything; five years on it’s done nothing</t>
   </si>
   <si>
@@ -1858,7 +1861,10 @@
 </t>
   </si>
   <si>
-    <t>45</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Federal taxes increasing for Albertans in 2025: Report</t>
@@ -1924,7 +1930,13 @@
 </t>
   </si>
   <si>
-    <t>58</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>-9</t>
   </si>
   <si>
     <t>Fraser Institute: Time to fix health care in Alberta</t>
@@ -2061,9 +2073,6 @@
 </t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>Opinion: Why Alberta should take the lead on carbon capture, utilization and storage</t>
   </si>
   <si>
@@ -2137,13 +2146,13 @@
 </t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>125</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>SIU concludes no police wrongdoing following arrest of Stratford woman</t>
@@ -2307,7 +2316,10 @@
 </t>
   </si>
   <si>
-    <t>61</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>Environmental fee</t>
@@ -2362,10 +2374,7 @@
 </t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>57</t>
   </si>
   <si>
     <t>Outlook 2025: The future of the utility-scale BESS market</t>
@@ -2498,7 +2507,7 @@
 </t>
   </si>
   <si>
-    <t>111</t>
+    <t>104</t>
   </si>
   <si>
     <t>SD Public Utilities Commissioners set a maximum price for Summit's filing fee while limiting interveners</t>
@@ -2803,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t>22</t>
+    <t>45</t>
   </si>
   <si>
     <t>Canada spent $14.5M fighting First Nations child advocate in court</t>
@@ -2861,7 +2870,7 @@
 </t>
   </si>
   <si>
-    <t>73</t>
+    <t>64</t>
   </si>
   <si>
     <t>Taiwan readies for carbon fee collection</t>
@@ -2978,7 +2987,7 @@
 </t>
   </si>
   <si>
-    <t>92</t>
+    <t>86</t>
   </si>
   <si>
     <t>Opinion</t>
@@ -3040,6 +3049,9 @@
 其他媒體可能發表不同的觀點，削弱文章的影響力。
 缺乏數據支持，難以證明評論員的觀點。
 </t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>Carbon Tax In India: A Strategy For Sustainable Development</t>
@@ -3233,10 +3245,10 @@
 </t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>Congestion pricing is our collective responsibility for New York’s future | Opinion</t>
@@ -3282,9 +3294,6 @@
   </si>
   <si>
     <t>Politicaloppositiontocongestionpricingcouldhinderitsimplementationoreffectiveness.Publicresistanceandnegativeperceptionoftheprogramcouldleadtoitsfailure.Unexpectedeconomicdownturnsorotherunforeseencircumstancescouldimpacttheprogram'sfeasibility.</t>
-  </si>
-  <si>
-    <t>49</t>
   </si>
   <si>
     <t>ACCC points to lack of competition between stevedores on landside charges</t>
@@ -3349,7 +3358,7 @@
 </t>
   </si>
   <si>
-    <t>23</t>
+    <t>11</t>
   </si>
   <si>
     <t>EWL’s deal room hub showcases emerging startup</t>
@@ -3470,6 +3479,9 @@
 缺乏政策支持和監管框架。
 可能被濫用或造成新的不平等。
 </t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>Prince Edward County announces fee updates for 2025</t>
@@ -3591,6 +3603,9 @@
 </t>
   </si>
   <si>
+    <t>-12</t>
+  </si>
+  <si>
     <t>Kinsley and Icetec Partner to Meet Growing Clean Energy Storage Demand</t>
   </si>
   <si>
@@ -3646,7 +3661,7 @@
 </t>
   </si>
   <si>
-    <t>51</t>
+    <t>49</t>
   </si>
   <si>
     <t>These rates and fees are changing in the new year in Saskatoon</t>
@@ -3846,6 +3861,9 @@
     <t xml:space="preserve">持續的黨派鬥爭可能導致政府施政癱瘓，影響國家發展。
 公眾對政治的失望和不信任感可能加劇。
 </t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>Experts urge govt to take action towards sustainability</t>
@@ -4052,7 +4070,7 @@
 </t>
   </si>
   <si>
-    <t>90</t>
+    <t>88</t>
   </si>
   <si>
     <t>Why Prime Minister Trudeau Should Stay and Fight: The Liberal Legacy at Stake</t>
@@ -4114,6 +4132,9 @@
 </t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>Commission approves "extremely aggressive" emissions cuts for midstream sector</t>
   </si>
   <si>
@@ -4170,7 +4191,7 @@
 </t>
   </si>
   <si>
-    <t>85</t>
+    <t>81</t>
   </si>
   <si>
     <t>A Vehicle Mileage Tax for Heavy Trucks?</t>
@@ -4226,7 +4247,7 @@
 </t>
   </si>
   <si>
-    <t>67</t>
+    <t>62</t>
   </si>
   <si>
     <t>UK’s carbon tax to affect VN exports</t>
@@ -4403,7 +4424,7 @@
 </t>
   </si>
   <si>
-    <t>105</t>
+    <t>97</t>
   </si>
   <si>
     <t>Lower housebuyers’ bills with solar panels on newbuild roofs, ministers urged</t>
@@ -4467,6 +4488,9 @@
 競爭壓力：其他替代能源技術的發展可能對太陽能產業造成競爭壓力。
 社會接受度：社會大眾對太陽能技術的接受度可能影響法案的推動。
 </t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>Biden administration institutes new policy targeting businesses with mandatory fees: 'Companies ... should have to pay'</t>
@@ -4687,6 +4711,9 @@
     <t xml:space="preserve">資訊來源單一，可能造成資訊偏差。
 缺乏數據支持，難以進行深入分析。
 </t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>碳權與碳稅：應對氣候變遷的重要經濟工具</t>
@@ -4820,7 +4847,10 @@
 </t>
   </si>
   <si>
-    <t>54</t>
+    <t>133</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>From Iceland — Iceland's New Government Formed, Priorities Unveiled</t>
@@ -4883,7 +4913,7 @@
 </t>
   </si>
   <si>
-    <t>82</t>
+    <t>76</t>
   </si>
   <si>
     <t>Romney’s climate legacy: A champion with few results</t>
@@ -5000,6 +5030,9 @@
 </t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>Enterprise — Essential business, finance and policy news from the Arab world</t>
   </si>
   <si>
@@ -5093,9 +5126,6 @@
 SummitCarbonSolutions公司可能採取其他行動來推進其項目。
 缺乏公眾參與和討論，可能導致決策不公正或效率低下。
 </t>
-  </si>
-  <si>
-    <t>48</t>
   </si>
   <si>
     <t>Report highlights Pakistan’s road to net-zero</t>
@@ -5200,7 +5230,7 @@
 </t>
   </si>
   <si>
-    <t>50</t>
+    <t>107</t>
   </si>
   <si>
     <t>New York aims to fine polluters up to $75 billion with new climate law</t>
@@ -5281,6 +5311,9 @@
 </t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>Carbon County commissioners increase fees for holiday, weekend parking</t>
   </si>
   <si>
@@ -5365,6 +5398,594 @@
   </si>
   <si>
     <t>2024-12-27 16:01:36</t>
+  </si>
+  <si>
+    <t>JetBlue loyalty members can earn points by contributing to this sustainability initiative</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/en-us/travel/news/jetblue-loyalty-members-can-earn-points-by-contributing-to-this-sustainability-initiative/ar-AA1wA2kY</t>
+  </si>
+  <si>
+    <t>MSNThrough the end of 2024, JetBlue TrueBlue and Mosaic members can earn tiles for perks and status by contributing to sustainable aviation fuel (SAF).5 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 14:06:23</t>
+  </si>
+  <si>
+    <t>Verbier misses emission busting opportunity</t>
+  </si>
+  <si>
+    <t>https://lenews.ch/2024/12/27/verbier-misses-emission-busting-opportunity/</t>
+  </si>
+  <si>
+    <t>Le NewsHolidays generate greenhouse gas and ski holidays are no exception. However, if no flying is involved, ski holidays can be relatively low carbon.10 小時前</t>
+  </si>
+  <si>
+    <t>.Verbier misses emission busting opportunity
+27/12/2024 BY LE NEWS —LEAVE A COMMENT
+Holidays generate greenhouse gas and ski holidays are no exception. However, if no flying is involved, ski holidays can be relatively low carbon. The carbon consulting firm ecollective, includes a train-based ski trip to France (from the UK) among its list of lowest-carbon holidays. Transport fairly obviously accounts for most of the emissions associated with a ski holiday. If flights are involved, transport can easily exceed 70% of a ski holiday’s emissions. So the key to a low carbon ski holiday is not flying. Trains and ski lifts, especially when the electricity they use is low carbon, are the best means of moving.
+And, ski resorts are not environmentally equal. Some are taking their carbon footprints more seriously than others. Ecollective launched a project with the UK travel company Inghams to gauge how well different ski resorts are managing their emissions. Their list of resorts is not comprehensive and does not rank based on emissions. Instead it asks whether resorts measure emissions and whether they publicly report them. Measuring emissions is the first step in the journey to reducing them.
+Ecollective’s list puts French resorts in the lead. All 16 of the French resorts listed measure their emissions, and all but three publish their results. US resorts score highly too. Switzerland is a mixed bag. Of the four Swiss resorts listed, only two (Zermatt and Saas Fee) measure their emissions, and only one (Zermatt) publishes them. The other two Swiss resorts listed (St. Moritz and Verbier) do not measure emissions.
+In addition to not flying, another way skiers can reduce their carbon footprint is to take public transport. At Verbier, for example, it is possible to take a combination of train and ski lift all the way to the resort. However, the train is not always ideal if you have a lot of equipment and a family to get to the mountain. For a family of four train travel can be expensive in Switzerland. Children under 16 can travel for free with parents with a Junior Travel Pass. But once they hit 16 the car becomes a much cheaper as well as more convenient option when all of the gear is considered. A family of four could spend nearly CHF 250 to CHF 500 on return train tickets from Geneva to Verbier if their children are over 16. For those who already have a car, the fuel (or electricity) cost would be a small fraction of that sum.
+Verbier has an opportunity (that it has not seized) to reduce car use by those who choose car travel. Since December 2021, the lift between Le Châble</t>
+  </si>
+  <si>
+    <t>2024-12-28 14:06:46</t>
+  </si>
+  <si>
+    <t>瑞士韋爾比耶滑雪勝地錯失降低碳排放的機會。ecollective 公司的研究顯示，許多滑雪勝地並未積極測量和公開其碳排放量，而交通運輸是滑雪度假碳排放的主要來源。雖然韋爾比耶可以選擇火車和纜車前往，但對於攜帶大量裝備的家庭來說，火車費用昂貴，使得自駕車成為更便宜且便利的選擇。韋爾比耶錯失了藉由鼓勵減少自駕車使用來降低碳排放的機會。</t>
+  </si>
+  <si>
+    <t>Holidays generate greenhouse gas and ski holidays are no exception.  …  The key to a low carbon ski holiday is not flying. … Ecollective’s list puts French resorts in the lead. … Of the four Swiss resorts listed, only two (Zermatt and Saas Fee) measure their emissions, and only one (Zermatt) publishes them. The other two Swiss resorts listed (St. Moritz and Verbier) do not measure emissions. … For a family of four train travel can be expensive in Switzerland. … Verbier has an opportunity (that it has not seized) to reduce car use by those who choose car travel.</t>
+  </si>
+  <si>
+    <t>韋爾比耶(Verbier)、滑雪勝地、碳排放、溫室氣體、低碳旅遊、交通運輸、飛機、火車、纜車、ecollective、瑞士、法國、測量排放、環境保護、自駕車、公共交通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章點出滑雪勝地碳排放問題，並以韋爾比耶為例，說明其錯失的減碳機會。
+提供了降低滑雪度假碳排放的建議，例如不搭乘飛機，使用火車和纜車等。
+比較了不同國家滑雪勝地在測量和公開碳排放方面的表現，提供了數據支持。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章主要關注韋爾比耶，缺乏對其他滑雪勝地更全面的分析。
+文章沒有提供具體的數據來支持韋爾比耶自駕車比火車更便宜的說法。
+文章只點出韋爾比耶錯失機會，沒有提出具體的解決方案。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步研究不同交通方式的碳排放量，並提出更精確的減碳建議。
+可以分析更多滑雪勝地的碳排放情況，並找出最佳實踐案例。
+可以與滑雪勝地合作，制定更有效的減碳策略。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氣候變化持續加劇，滑雪勝地將面臨更大的環境壓力。
+政府和消費者對環境保護的重視程度可能下降，影響減碳措施的推行。
+其他旅遊方式的競爭，可能影響滑雪勝地的發展。
+</t>
+  </si>
+  <si>
+    <t>Iowa Farmer Paving the Way for a Renewable Tax Credit: An Interview With Mitchell Hora</t>
+  </si>
+  <si>
+    <t>https://www.renewableenergymagazine.com/interviews/iowa-farmer-paving-the-way-for-a-20241227</t>
+  </si>
+  <si>
+    <t>Renewable Energy MagazineAcross America's heartland, excitement is palpable over the impending implementation of the 45Z tax credit, which goes into effect next week and will reward...16 小時前</t>
+  </si>
+  <si>
+    <t>Agenda
+Directory
+Jobs
+tvREM
+About us
+Friday, 27 December 2024
+Newsletters
+Home
+Panorama
+Wind
+Solar
+Bioenergy
+Other renewables
+Storage
+Energy saving
+Electric/Hybrid
+Hydrogen
+Interviews
+Blogs
+interviews
+Iowa Farmer Paving the Way for a Renewable Tax Credit: An Interview With Mitchell Hora
+Friday, 27 December 2024
+REM
+Across America's heartland, excitement is palpable over the impending implementation of the 45Z tax credit, which goes into effect next week and will reward renewable fuel producers who take steps to lower the so-called “carbon intensity” of their products.
+Iowa Farmer Paving the Way for a Renewable Tax Credit: An Interview With Mitchell Hora
+Mitchell Hora
+In Washington, Iowa, a farm community about an hour south of Cedar Rapids, a seventh generation farmer named Mitchell Hora has been working hard to make sure he and as many of his fellow farmers as possible benefit from a program he believes will have a “ historic” impact on his community.
+In 2015, while continuing to work on his farm, Hora founded a side business called ContinuumAg, to help other Iowa farmers quantify and verify their carbon footprint, a key component of qualifying for the tax credit.
+Today, he sees the tax credit, a provision of President Joe Biden's Inflation Reduction Act, as a game changer for farming communities, a vehicle not only to bring new corporate players to the table in a region they often ignore, but also for spreading the gospel of “regenerative” or “sustainable” agriculture.
+“Regenerative agriculture is the future and simply a better system for farmers,” Hora said during the interview that follows.
+“45Z, the renewable fuels tax credit is inspiring people to think about soil health and low-carbon farming practices like never before,” he said.
+As a result, ContinuumAg has grown from a simple consultancy to the operator of a prominent soil health data intelligence platform called TopSoil.
+A graduate of Iowa State University with degrees in Agronomy and Ag Systems Technology, Hora has been lauded in recent years by everyone from Iowa's governor, who gave him a prestigious environmental excellence award in 2023, to Forbes magazine, which celebrated him with a spot on its 30 under 30 list in 2021.
+Mitchell is a Soil Health Champion as designated by the National Association of Conservation Districts, is a member of the Global Farmer Network and serves on the Washington County, Iowa Farm Bureau Board.
+Hora's wife, Tympest, shares his entrepreneurial spirit, and is owner of a dance academy in Fairfield, Iowa. They have two children.
+REM : So let's start with the most basic of questions. How did you get into the business of carbon intensity analysis?
+MH : Everything that I have built at ContinuumAg, I've built from my own family farm. That's really how I got into it. I'm a seventh generation farmer. The year 2025 will be my family's 152nd crop in Iowa, and my family has been big into conservation practices, such as no-till and cover crops, for decades.
+I started ContinuumAg back in 2015 to bring soil health analysis and better technology to row-crop farms like mine, and then in 2020, we launched a software to help farmers quantify and map their soil health.
+It was around this same time that I started getting involved in some of the carbon credit programs that were around at that point; the problem was, none of those carbon credit programs were really set up for early adopters like my farm and like a lot of the other farmers that I was consulting with at that point. 
+So, from a business standpoint, we were helping other companies with their carbon credit programs. I worked with Bravo Bank and CIBO, a voluntary carbon marketplace that allows companies to offset their carbon emissions by purchasing carbon credits generated by US farmers, and a variety of others in the carbon credit space – mostly dealing with carbon offsets in the voluntary carbon markets .
+However, when the Inflation Reduction Act got passed in August 2022, I dug into the 45Z section and the GREET model and just had the light bulb moment when I realized this is what I've been looking for, for my own farm,
+REM : Okay, so just for the benefit of our readers. When we're talking about 45z, we're talking about a new tax credit created by the Biden administration as part of the Inflation Reduction Act that is supposed to replace a handful of existing fuel industry tax credits that are set to expire at the end of 2024.
+MH : Correct. The 45Z tax credit, which goes into effect on Jan. 1, 2025, will reward renewable fuel producers for lowering the carbon intensity (or CI) score of their fuel.
+REM : And since we're defining terms. The GREET model you referred to is short for the Greenhouse Gases, Regulated Emissions, and Energy Use in Transportation model, which is a tool used to examine the life-cycle impacts of vehicle technologies, fuels, products, and energy systems.
+MH : Exactly. And so basically, I realized that this was exactly what all of these companies had been looking for as they tried to quantify and reduce their carbon footprint.
+As a result, about two years ago I flipped my company on its head. I moved away from being consulting-focused to really being software- and data-focused.
+Since then, we've been aggressively pursuing on-farm carbon intensity quantification and third-party verification of the same.
+So today what I tell people is we are MMRV for carbon intensity, which stands for Measuring, Monitoring, Reporting and Verification. So far, we've scored 350 million bushels of crops.
+What we do is, we go directly to the farmer, and while we very aggressively try to get them ready for 45Z, I'm also very bullish about the entire concept of farmers being part of the solution as more and more companies look to decarbonize .
+REM : Okay, so for a little context, you mentioned a moment ago that you grow row crops on the family's farm… obviously, one of those crops must be corn, but…
+MH : Corn and soybeans. And we grow quite a bit of cereal rye as well. The cereal rye we grow for use as cover crop seed.
+The main cover crop that's used throughout the Midwest is cereal rye, and the seed is fairly expensive, so we've been growing our own for the last six years and utilizing our own seed and then selling cereal rye seed to other local farmers.
+REM : So, with carbon intensity testing. Why do we… I mean, why do you, as a farmer, or one of your neighbors, need this? And you described this epiphany you had, did other farmers know they were looking for a tool like this?
+MH: To answer the last part first, no, farmers are not aware that they need this kind of testing at their disposal, so I've been educating them through social media, through events, and things like that. I did 52 in-person speaking events in 2024, plus a lot of virtual stuff.
+We also do a weekly podcast and webinars and that kind of thing.
+Now work backwards through your question, the 45Z tax credit is why farmers need this data.
+The 45Z credit, though, is for transportation biofuel producers, those who make things like ethanol, biodiesel and sustainable aviation fuel.
+Now, for ethanol, just to cite an example, the carbon intensity equation for a gallon of ethanol includes the crop, in other words, the feedstock that was used. In the case of a gallon of ethanol, more than half of the carbon intensity of a gallon of ethanol comes from the corn that's used to make it. Am I explaining this clearly?
+REM: Yes, I think so…
+MH: Okay, so today, on average, a gallon of ethanol in the US has a carbon intensity score of approximately 53, according to the Renewable Fuels Association.
+Now corn, by itself, has a carbon intensity score of 29.1 – that's the default score established by the US Department of Energy – meaning corn is more than half of the equation, right?
+REM: Right …
+MH: Now, I know I might be taking down a rabbit hole here, but our role, to put it as simply as I can, is to help farmers replace that default score of 29.1 with their real score, which is often substantially lower.
+Essentially it comes down to ethanol producers wanting to decarbonize so that they can earn this monetizable tax credit, namely the 45Z tax credit, and the best way to do that is use low-carbon corn.
+We're the partner in the process that enables you to provide you have low carbon corn, based on the data we collect.
+So, as I said earlier, we have scored roughly 350 million bushels of corn, and the average bushel that we've scored has had a carbon intensity score of 11.5. Now, that 11.5 is a drastic increase from the default of 29.1.
+REM : Why is that?
+MH: It's because the government scores are conservative, which is good, but they are also quite outdated.
+Farmers in the meantime have been implementing good conservation systems, precision agriculture systems, utilizing fertilizer better through the use of technology, adopting practices like no-till and cover crops, utilizing the newer, rather than synthetic fertilizers. 
+And like I said, on average, we're seeing that the bushels of corn that we've measured so far have scores of around 11.5.
+So it's the difference between that and the default of 29.1 that can be leveraged by the ethanol plant that wants to earn 45Z tax credits.
+REM: As we speak, it's the day after Christmas, and we're still waiting for some government guidance on 45Z, aren't we? Especially on areas like how long the credit will last and whether it will apply only to US-grown feedstocks?
+MH: That's true. And what we're doing in the meantime is helping farmers calculate their scores, utilizing a third-party protocol we developed based on the government's ISO 14O64 standard.
+Now, it may be that when the guidance comes down, the government will want to prescribe an audit protocol; that's fine. We're open to that and we will adjust our protocol to fit the government requirements.
+But what we're doing now is trying to proactively help farmers manage their data, because data is quite fragmented on a lot of farms, and we have to tell a very holistic story about how the crop was grown.
+It takes a lot of data, a lot of work, but that's what we're here to do – help farmers manage their data, verify their practices and verify their carbon intensity.
+REM : Now, you used the word “audit”; Is your process exclusively based on an audit? Is there any testing involved or anything like that?
+MH: What we do is all model based, utilizing the US Department of Energy's GREET model.
+What it says in the Inflation Reduction Act is that a model “shall” be developed by the US Department of Energy and the Argonne National Laboratory.
+The model that they already have, and which has been around since 1994 and continues to be improved upon, is the GREET model.
+We've been helping farmers to score using the latest GREET model, which was released a year ago, and we fully anticipate that there will be a new model for the tax credit.
+But you know, I think it's important, and we at ContinuumAg, think it's important to be proactive here because it is going to take a lot of data to tell this story.
+You might not realize this but a third of the corn that's grown in this country goes into ethanol production – a third… of all… corn grown here… so it is going to be a monumental lift that's needed to get the program rolling.
+There are some farms that are incredibly technologically advanced, and there are others that are incredibly not technologically savvy at all.
+So we're having to take a very tailored approach to each of the farms we are working with, helping them manage their data and prove that they're using the sustainable, low carbon practices that they say they're using.
+REM: Based on the situation you're describing, I imagine you run into a lot of people who are like, “What the heck are you talking about?”
+MH: Oh, it's all brand new. It's all brand new. And unfortunately, because the rules have been so delayed, there's a lot of confusion in the marketplace.
+There's also been a lack of aggression from the industry, because the ethanol industry has been burned by policymakers in the past, and so they're very skeptical. It's hard to roll out any type of program and really educate farmers when we don't even know the rules. 
+We don't have all the details, but we are anticipating getting some guidance from the Biden administration before the inauguration. 
+There is guidance that is in review at the White House right now. It's a guidance that was laid out by the Department of Agriculture and it includes some of the rules that they put together about quantifying carbon intensity of feedstocks to be used in biofuels. 
+That said, and as exciting as it is that the rules are under review, the ultimate guidance on the tax credit is coming from the Treasury Department.
+REM: So Treasury …
+MH: Well, we know that the Treasury and the Agriculture Department have been working together, in collaboration, to try to ensure that this tax credit gets done correctly. But there's a lot at stake. This tax credit is going to set a precedent that can be used outside of the biofuels arena. It's going to have a ripple effect across the whole of agriculture and really drive the adoption of more sustainable ag practices.
+REM: Okay, so this brings me to asking, what's actionable about this data you are collecting. I mean, on the one hand you're handing them a document that says, this is your carbon intensity and this is how it may impact your applying for a tax credit. On the other hand I'm kind of wondering about that farmer who looks at your data and says, “Hmm… my carbon intensity is kind of high… what can I do about it?”
+MH: You nailed it. You nailed it. What we have done is we've simplified the calculation process using the GREET model, and we actually do the baseline scoring for free for farmers on our software, which can be found at topsoil.ag .
+Farmers can go to topsoil.ag, set up an account, and within, usually, 10 minutes or so, they can have their carbon intensity score totally for free.
+Then we also built a calculator tool where they can run scenarios and see what their score would be if they were to adopt more soil health-minded practices such as using cover crops or no-till or changing their fertilizer.
+So it’s a decision-making tool farmers can utilize to see how they can improve their score, and then if a farmer wants to move forward and do more and get verified, we charge them a per acre annual fee to go through the third party verification program.
+The thing is, the farmers own their data the whole time. As a farmer myself, I know that it’s very important that farmers continue to own their data. That’s information farmers need.
+Now, in practice, as this government program is implemented at scale, we’re going to have private sector companies helping to administer it, with guidance from our government agencies.
+I mean, as I said, it’s a big lift to get this tax credit up and running, and we’ve got to let the free market do its job to help.
+As for our role, we give the farmers their baseline carbon intensity score for free, we give them the tools that they can use to improve their score, and we offer consulting as well, if they want some hand holding and additional guidance in adopting these practices.
+That last piece really goes back to the roots of my company, which was a consulting company and a soil health data company … so we have historical expertise in that space.
+REM: What’s the biggest challenge to a farmer wanting to reduce his or her carbon footprint?
+MH: Changing practices and understanding. I guess what it boils down to is, if you’re going to adopt more of these sustainable, regenerative practices, like cover crops, for example, you have to understand how to overcome the logistics and economic risks of change.
+The logistical risk of change revolves around figuring out things like what kind of cover crop to use. Do I need to change my equipment? How do I manage this cover crop?
+And then we have to cover the economic risk. If you do cover crops incorrectly you can lose yield, you can lose revenue, or you can lose profitability.
+The tax credit helps to overcome the economic risk by offering a carrot that is unlike one we've ever seen before, and it's not driven directly by subsidies, rather it’s being driven by a tax credit and an outcome-based program.
+I personally like that a lot. And I think a lot of other farmers like it as well. Under this tax credit program, farmers ultimately get to choose the practices they wish to implement and they can lower their carbon intensity score by the means that fit them best.
+I mentioned earlier that the average farmer here in Iowa is seeing a score of 11.5 per bushel on row crops, but here on our farm, our corn this year had a score of 2.3 and my soybeans were a negative nine. My dad had some soybeans that were negative 16. 
+So we can really get low, low scores, but each farmer needs to understand how to overcome the economic and logistical risks of change.
+REM: So would you say that 45Z is the biggest deal, in terms of a tax incentive, that farmers have gotten in a long time, if ever?
+MH: I don’t know that I can really speak to that. I mean, there have been other changes made by lawmakers, like the stepped-up basis, which adjusts the value of inherited assets to the market value at the time of the owner’s death, and to the death tax itself, that have had monumental impacts as well.
+But what I would say about 45Z is that if done correctly, it will have a bigger positive effect on the adoption of sustainable agriculture than any farm bill program or or anything else that we have seen. 
+If it gets implemented correctly, it's going to change global agriculture because of the ripple effect and the precedent that it's going to set. It'll change global agriculture, and I'm already in conversations about how this can be implemented in Brazil and Australia and other places around the world that are also trying to decarbonize. 
+They're watching us, and they're watching our policy makers in D.C., and our policy makers need to follow the law and utilize the GREET model. They need to follow the law and get these rules out in as timely of a manner as they can. 
+And obviously, now the clock is ticking. But yeah, this program will have a massive, massive impact on American agriculture, but it will also have one on global ag as well, and especially for American agriculture that is not in a great financial situation right now, and the outlook in the coming years looks like it could be fairly rough.
+A program like this is really a shining light at the end of the tunnel that that farmers need, you know, and incentivizes great behavior, incentivizes implementing more sustainable ag practices that are going to create a positive outcome – long beyond the tax credit life cycle, you know?
+REM: Let me ask you a potentially dumb question. We always hear how tough it is to be an American farmer. And it is tough. But I think some Americans scratch their heads and wonder why; after all, we all go to the grocery store and purchase your goods. So could you explain the basic economics of farming?
+MH: Well, there’s a lot to the answer to that question. For one thing, there’s a lack of transparency in how that food dollar is shared. That’s probably the biggest factor driving that disconnect.
+I mean, the products that I’m growing on my farm don’t directly go to the consumer. There are a lot of hands in there. There are a lot of slices that get taken out of the pie between the farm and the end consumer.
+Also, farming is just very capital intensive: There’s the equipment we use, the land that we are operating on, all of that is very expensive.
+What I like about 45Z is there’s an opportunity here for tremendous transparency and sharing, because we know what the law says the scores are worth. On that score, there’s a great deal of transparency from the farmer right on up to the Internal Revenue Service. And I think, if this works as intended, it will help improve transparency between farmers and processors and distributors and retailers … all those entities that need a cut. Now, I acknowledge everybody involved in the process needs to make money, but there needs to be more transparency. That’s really what it boils down to.
+REM: One last question, and it’s not intended to be political in nature. As you know, we’re at the end of the Biden administration and President-elect Donald Trump is about to assume office for the second time. With the change of occupancy in the White House, there will be a new Ag secretary, a new energy secretary and so forth. We touched on the idea of uncertainty earlier, so let me ask you this: How confident are you, even if you get  guidance on 45Z from the Biden administration, that the program will continue once Trump is in office?
+MH: There are a lot of unknowns with the Trump administration coming in. However, 45Z has very good bipartisan support. 
+There are  already bills that have been introduced in the House and Senate to extend the 45Z program to be a 10-year program. It's currently written to be a three year program, but there is bipartisan support to extend it. The Republicans on the House, Ways and Means Committee recently closed a request for information. They are trying to better understand this as they prepare for tax discussions to be had here in 2025.
+So we’re seeing very good bipartisan support for this bill, and I like that it really does a lot of good. 
+It is great for farmers and great for the adoption of more sustainable agricultural  practices that are going to help the environment, and it's a real shining point of the inflation Reduction Act. 
+At the same time, and this may be the key to answering your question, it also does continue to enable the use of liquid fuels. Now, I know there are certain groups that don’t like liquid fuels at all. Personally, I’m in the camp that believes we’re going to have liquid fuels for a long time, whether it be in our road vehicles or our jets or .. whatever. We need to have all the options on the table.
+Now, I have been very aggressively working with the Biden administration, and they’ve been great to work with and I anticipate that there’s going to be a lot of work that’s going to be needed to be done with the Trump administration.
+But if we really want to stimulate the American economy, especially in middle America, if we really want to have more energy, low cost energy, we need to have all the options on the table. 
+And I think this (45Z) is an excellent program that gets that done while not directly adding to the deficit. Frankly, I think its being a tax credit is more Trump-friendly, in a way, than other programs might have been.
+If you find it interesting, you can subscribe to our newsletters free of charge
+icono Energías Renovables
+hydrogen
+U.S. Department of Energy Unveils Updated Hydrogen Program Plan
+U.S. Department of Energy Unveils Updated Hydrogen Program Plan
+storage
+Nordic Solar Enters Into Agreement With Ringkjøbing Landbobank For First BESS Project in Denmark
+Nordic Solar Enters Into Agreement With Ringkjøbing Landbobank For First BESS Project in Denmark
+biofuels
+Neste to Supply Sustainable Aviation Fuel to Air New Zealand
+Neste to Supply Sustainable Aviation Fuel to Air New Zealand
+energy saving
+County in Washington State Distributing Free Energy Efficient Appliances to Customers
+County in Washington State Distributing Free Energy Efficient Appliances to Customers
+wind
+Anemoi Completes Largest Wind-Propulsion Project to Date
+Anemoi Completes Largest Wind-Propulsion Project to Date
+miscellaneous
+European countries failing to make heat pumps affordable
+European countries failing to make heat pumps affordable
+rose morrison
+Hempitecture: Merging Insulation and Renewable Energy Through Innovation
+Hempitecture: Merging Insulation and Renewable Energy Through Innovation
+geothermal
+Geothermal System Now Operating at Smith College in Massachusetts
+Geothermal System Now Operating at Smith College in Massachusetts
+electric/hybrid
+Switch Technologies Unveils World
+Switch Technologies Unveils World's First Vehicle Powered by XNO®
+ocean energy
+Eco Wave Power Unveils First Grid-Connected Wave Energy Array in the Middle East 
+Eco Wave Power Unveils First Grid-Connected Wave Energy Array in the Middle East 
+pv
+SolarEdge Appoints Shuki Nir as Chief Executive Officer
+SolarEdge Appoints Shuki Nir as Chief Executive Officer
+jane marsh
+The Pros and Cons of Space-Based Solar Power
+The Pros and Cons of Space-Based Solar Power
+biomass
+Can Biomass Help the UK Achieve Net Zero?
+Can Biomass Help the UK Achieve Net Zero?
+panorama
+Circular Economy Investments Bring Social, Economic and Environmental Benefits
+Circular Economy Investments Bring Social, Economic and Environmental Benefits
+biogas
+Suomen Lantakaasu Invests in the Kiuruvesi Biogas Plant Project  
+Suomen Lantakaasu Invests in the Kiuruvesi Biogas Plant Project  
+small hydro
+Gullbergelva hydropower plant in Norway, begins commercial operation
+Gullbergelva hydropower plant in Norway, begins commercial operation
+thermal
+British Library commissions Naked Energy to install the UK
+British Library commissions Naked Energy to install the UK's largest solar heat project
+interviews
+New Biofuel on the Block: An Interview with Donnie Wahlberg for the Clean Fuels Alliance of America
+New Biofuel on the Block: An Interview with Donnie Wahlberg for the Clean Fuels Alliance of America
+OJD
+Media Kit 2025
+Advertising
+Contact
+Cookie policy
+Privacy policy
+Legal notice
+Creación Viaintermedia:
+Web design madrid</t>
+  </si>
+  <si>
+    <t>2024-12-28 14:07:15</t>
+  </si>
+  <si>
+    <t>環保、科技</t>
+  </si>
+  <si>
+    <t>這篇文章是對Mitchell Hora的訪談記錄，Hora是一位第七代愛荷華州農民，他創立了ContinuumAg公司，幫助其他農民量化和驗證他們的碳足跡，以符合拜登政府《通貨膨脹削減法案》中45Z可再生燃料稅收抵免的資格。該稅收抵免將獎勵可再生燃料生產商降低其產品的碳強度（CI）分數。Hora解釋了45Z稅收抵免的機制、GREET模型的使用，以及ContinuumAg公司如何幫助農民測量、監測、報告和驗證他們的碳強度，以獲得稅收抵免。他還討論了農民面臨的挑戰、45Z稅收抵免的潛在影響以及在即將到來的政府更迭下的不確定性。</t>
+  </si>
+  <si>
+    <t>“45Z, the renewable fuels tax credit is inspiring people to think about soil health and low-carbon farming practices like never before,” he said.  … “Regenerative agriculture is the future and simply a better system for farmers,” Hora said… “What we do is, we go directly to the farmer, and while we very aggressively try to get them ready for 45Z, I'm also very bullish about the entire concept of farmers being part of the solution as more and more companies look to decarbonize.” …  “So today what I tell people is we are MMRV for carbon intensity, which stands for Measuring, Monitoring, Reporting and Verification. So far, we've scored 350 million bushels of crops.” … “The 45Z credit, though, is for transportation biofuel producers, those who make things like ethanol, biodiesel and sustainable aviation fuel.” … “Now, for ethanol, just to cite an example, the carbon intensity equation for a gallon of ethanol includes the crop, in other words, the feedstock that was used. In the case of a gallon of ethanol, more than half of the carbon intensity of a gallon of ethanol comes from the corn that's used to make it.”</t>
+  </si>
+  <si>
+    <t>MitchellHora,ContinuumAg,45Ztaxcredit,InflationReductionAct,renewablefuels,carbonintensity,GREETmodel,regenerativeagriculture,sustainableagriculture,carbonfootprint,ethanol,biodiesel,sustainableaviationfuel,Iowafarmers,soilhealth,dataintelligenceplatform,TopSoil,MMRV,USDepartmentofEnergy,ArgonneNationalLaboratory,Bidenadministration,Trumpadministration,bipartisansupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提供了一個實際案例，展示了45Z稅收抵免的實際應用和影響。
+詳細解釋了複雜的碳強度計算和驗證過程。
+採訪對象是該領域的專家，具有權威性。
+討論了該計劃的潛在影響，以及政治和經濟上的不確定性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章長度較長，讀者可能需要較長時間閱讀和理解。
+部分技術細節對普通讀者來說可能比較難懂。
+只關注美國的案例，缺乏國際比較和更廣闊的視角。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步分析45Z稅收抵免的長期影響，以及對農業和能源部門的影響。
+可以探討其他國家如何借鑒美國的經驗，制定相似的政策。
+可以深入探討再生農業和可持續農業的相關技術和實踐。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未來政府政策的變化可能影響45Z稅收抵免的實施。
+技術上的挑戰和不確定性可能阻礙該計劃的有效實施。
+缺乏公眾對再生農業和碳強度的理解，可能影響該計劃的接受度。
+</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez and Kevin Costner Spark Rumor After Spotted in Aspen Together</t>
+  </si>
+  <si>
+    <t>https://www.aceshowbiz.com/news/view/00242792.html</t>
+  </si>
+  <si>
+    <t>AceShowbiz.comFollowing the rocky end to their respective marriages, Jennifer Lopez and Kevin Costner were spotted enjoying themselves at an Aspen hotspot,...15 小時前</t>
+  </si>
+  <si>
+    <t>.Jennifer Lopez And Kevin Costner Spark Rumor After Spotted In Aspen Together
+Following The Rocky End To Their Respective Marriages, Jennifer Lopez And Kevin Costner Were Spotted Enjoying Themselves At An Aspen Hotspot, Igniting Rumors And Fan Speculation.
+AceShowbiz - Jennifer Lopez and Kevin Costner were spotted at celebrity hotspot Kemo Sabe in Aspen, Colorado, on Friday, December 27, setting the rumor mill in motion. Lopez, 55, looked cheerful as she socialized and enjoyed a drink. Costner, 69, looked relaxed while chatting with other patrons.
+Despite being spotted in the same crowd, it remains unclear whether the pair interacted with each other. However, Lopez has expressed admiration for Costner's hit show "Yellowstone," which her estranged husband Ben Affleck revealed she had introduced him to.
+Both Lopez and Costner have recently gone through highly publicized divorces. Lopez split from Affleck in August while Costner divorced Christine Baumgartner in 2023 after 18 years of marriage.
+Rumors of a potential romance have been fueled by speculations that Lopez may be open to dating, despite still maintaining ties to Affleck. Costner, on the other hand, has expressed interest in finding love again but seems wary of public scrutiny.
+Several celebrities have expressed their admiration for Costner, including Hoda Kotb and Kristin Cavallari. However, it remains to be seen if Lopez and Costner will pursue a romantic connection. Their appearance together has certainly piqued the interest of fans and media alike.
+Follow AceShowbiz.com @ Google News
+You can share this post!
+Jennifer Lopez Found Bruno Mars' Wedding Performance Fee 'Ridiculous'
+Jennifer Lopez's Lavish Mansion Unwanted And Saddled With Memories Of Ben Affleck</t>
+  </si>
+  <si>
+    <t>2024-12-29 16:06:46</t>
+  </si>
+  <si>
+    <t>娛樂</t>
+  </si>
+  <si>
+    <t>珍妮佛·洛佩茲 (Jennifer Lopez) 和凱文·科斯納 (Kevin Costner) 在科羅拉多州阿斯彭的知名餐廳 Kemo Sabe 被目擊同場出現，引發兩人之間可能發展戀情的揣測。 雖然不清楚兩人是否互動，但洛佩茲曾公開表示欣賞科斯納主演的影集《Yellowstone》。兩人近期都經歷了高調的離婚，洛佩茲與班·艾佛列克 (Ben Affleck) 分手，科斯納則與克莉絲汀·鮑姆加特納 (Christine Baumgartner) 離婚。 媒體和粉絲都對這對新組合充滿好奇。</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez and Kevin Costner were spotted at celebrity hotspot Kemo Sabe in Aspen, Colorado…Lopez, 55, looked cheerful…Costner, 69, looked relaxed…Despite being spotted in the same crowd, it remains unclear whether the pair interacted with each other. However, Lopez has expressed admiration for Costner's hit show "Yellowstone."…Both Lopez and Costner have recently gone through highly publicized divorces…Rumors of a potential romance…Their appearance together has certainly piqued the interest of fans and media alike.</t>
+  </si>
+  <si>
+    <t>珍妮佛·洛佩茲,凱文·科斯納,阿斯彭,KemoSabe,Yellowstone,離婚,戀情緋聞,班·艾佛列克,好萊塢,名人,八卦,娛樂新聞,美國</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件本身具有高話題性，涉及兩位好萊塢知名人物。
+時間點敏感，正值兩人離婚後，更容易引起大眾關注。
+模糊的曖昧關係，更能吊足讀者胃口，增加點擊率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺乏實質證據證明兩人有戀情，僅基於同場出現的推測。
+新聞內容主要為猜測和報導，缺乏深度分析。
+容易被其他娛樂新聞快速取代。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步追蹤兩人動態，尋找更多證據佐證。
+可以分析兩人個性與背景，探討戀情可能性。
+可以擴展至其他相關名人八卦，增加文章影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消息可能為誤會或炒作，影響新聞可信度。
+兩人可能否認戀情傳聞，降低新聞價值。
+其他更具爆點的娛樂新聞搶佔版面。
+</t>
+  </si>
+  <si>
+    <t>WA county adds 120 Tesla Model Y units to its vanpool fleet</t>
+  </si>
+  <si>
+    <t>https://www.teslarati.com/wa-county-adds-120-tesla-model-y-vanpool-fleet/</t>
+  </si>
+  <si>
+    <t>TeslaratiIn a push to reduce carbon emissions, King County Metro has expanded its vanpool fleet with the addition of 120 Tesla Model Y vehicles.17 小時前</t>
+  </si>
+  <si>
+    <t>.WA county adds 120 Tesla Model Y units to its vanpool fleet
+In a push to reduce carbon emissions, King County Metro has expanded its vanpool fleet with the addition of 120 Tesla Model Y vehicles.
+VANPOOL PROGRAM EXPANSION:
+CHOOSING TESLA MODEL Y:
+FINANCIAL OUTLOOK:
+Don’t hesitate to contact us with news tips. Just send a message to simon@teslarati.com to give us a heads up.</t>
+  </si>
+  <si>
+    <t>2024-12-29 16:07:06</t>
+  </si>
+  <si>
+    <t>華盛頓州金縣都會運輸署(King County Metro)為了減少碳排放，將其共乘車隊(vanpool fleet)擴增120輛特斯拉Model Y電動車。此舉展現金縣積極採用電動車輛以達成環保目標的決心。</t>
+  </si>
+  <si>
+    <t>King County Metro has expanded its vanpool fleet with the addition of 120 Tesla Model Y vehicles. In a push to reduce carbon emissions</t>
+  </si>
+  <si>
+    <t>KingCountyMetro,TeslaModelY,vanpoolfleet,carbonemissions,electricvehicles,sustainabletransportation,Washingtonstate,environmentalinitiatives,fleetexpansion,reducedcarbonfootprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顯著降低碳排放：使用電動車輛取代傳統燃油車，大幅減少碳排放量，符合環保目標。
+提升公共運輸形象：採用特斯拉等知名品牌電動車，提升公共運輸系統的現代化形象及吸引力。
+潛在成本效益：長期來看，電動車的維護成本和燃料費用可能低於傳統燃油車，帶來經濟效益。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期投資成本高：購買120輛特斯拉ModelY的初期投資相當龐大。
+充電設施需求：需要完善的充電基礎設施來支持如此規模的電動車隊運行。
+維護及保養：電動車的維護和保養可能與傳統燃油車有所不同，需要專業技術和設備。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多使用者：環保友善的共乘車隊可能吸引更多人使用公共運輸，減少私人車輛使用。
+政府補助和獎勵：政府可能提供補助或獎勵措施，支持此類環保項目。
+技術發展：電動車技術不斷發展，未來可能出現更經濟高效的車輛和充電方案。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電池壽命及更換成本：電動車電池壽命有限，更換電池成本高昂。
+電價波動：電價的波動可能影響電動車隊的營運成本。
+政策變化：政府政策的變化可能影響電動車的推廣和使用。
+</t>
+  </si>
+  <si>
+    <t>NY Gov. Kathy Hochul Signs Law Forcing Energy Companies to Fund “Climate Change Superfund”</t>
+  </si>
+  <si>
+    <t>https://legalinsurrection.com/2024/12/ny-gov-kathy-hochul-signs-law-forcing-energy-companies-to-fund-climate-change-superfund/</t>
+  </si>
+  <si>
+    <t>Le·gal In·sur·rec·tionNew York is spending billions on illegal immigrants, and is facing a $16 billion deficit in 2028. So the NY Governor and legislature are trying to force...17 小時前</t>
+  </si>
+  <si>
+    <t>.NY Gov. Kathy Hochul Signs Law Forcing Energy Companies to Fund “Climate Change Superfund”
+New York is spending billions on illegal immigrants, and is facing a $16 billion deficit in 2028. So the NY Governor and legislature are trying to force fossil fuel companies to pay $3 billion each year for 25 years based on pseudoscience and virtue-signalling.
+The cost of illegal immigration in New York State is substantial and multifaceted, with estimates varying based on different factors and timeframes.
+New York City alone is budgeting $12 billion between now and the end of Fiscal Year 2025 to provide for 173,000 recent illegal migrants. As of November 30, 2024, New York City had recorded expenditures of $1.47 billion in Fiscal Year 2023 and $3.75 billion in Fiscal Year 2024 for asylum seekers.
+At the regional level, the cost associated being a “Sanctuary State” is also extremely high.
+The conservative Federation for American Immigration Reform’s March study found New Yorkers will pay $9.9 billion all told for various federal, state and local government programs that serve more than 1 million illegal immigrants and asylum-seeking migrants in the Empire State.
+New York taxpayers will shell out $4.65 billion for education-related expenses, $3.5 billion for health care and welfare expenditures including food assistance programs, and $1.75 billion for costs related to immigration-related law enforcement such as caring for unaccompanied minors, the report breakdown states.
+It also estimates that the border crisis is costing US taxpayers more than $150 billion annually — a 30% jump since their 2017 study. The estimate was offset by around $31 billion in taxes collected from illegal aliens.
+Monies that once went to road improvements and other infrastructure projects has clearly been diverted, and the coffers are coming up empty. The Division of the Budget projects a growing general fund deficit that could reach $7.25 billion in three years. The Citizens Budget Commission estimates a structural deficit that could exceed $16 billion in the 2028 fiscal year.
+Faced with these issues, what is a governor to do? Kathy Hochul decided the best play was to blend climate cultism and virtue-signalling to target energy companies, confiscating billions to play for the essential infrastructure projects.
+The legislation, called the Climate Change Superfund Act, mandates that the companies responsible for the bulk of carbon emissions buildup between 2000 and 2024 pay about $3 billion each year for 25 years.
+“With nearly every record rainfall, heat wave, and coastal storm, New Yorkers are increasingly burdened with billions of dollars in health, safety, and environmental consequences due to polluters that have historically harmed our environment,” Governor Hochul said.
+…New York’s new law focuses on pollution produced by the combustion of fossil fuels, which results in the warming of the atmosphere, causing extreme weather, like floods and storms, to be more frequent, experts say.
+For me, the name “Climate Change Superfund Act” is pretentious and misleading. Carbon dioxide is a life-essential gas, and we have arguably been in a carbon dioxide famine. The original Superfund was an important piece of legislation that helped support the remediation of lands that had been seriously contaminated by truly dangerous substances.
+Beyond this insult to serious legislation, here is what the monies pilfered from legitimate American businesses are going to fund:
+At one time, all of the above endeavors would be funded by state and local taxes, or tolls. However, to continue both the climate crisis farce and the warm welcome to illegal immigrants, sacrifices must be made.
+So, in New York, brace yourself for California-style gas prices. It will be one of the many unintended consequences of being a “Sanctuary State”, despite assurances by “experts” consumers won’t be impacted.
+"The top Big Oil companies will be required to pay a combined total of $75 billion over 25 years. These costs won’t fall back on consumers, according to numerous economists, including Nobel-prize winning economist Joseph Stiglitz and an analysis from the Institute for Policy… https://t.co/2AQoFVOpPE
+— Rasmussen Reports (@Rasmussen_Poll) December 26, 2024
+I would like to think 2025 will be the year the American energy industry begins pushing back on the climate cultists. There are signs.
+“This type of legislation represents nothing more than a punitive new fee on American energy, and we are evaluating our options moving forward,” the American Petroleum Institute, the oil industry’s top lobbying group, said in a statement.
+This legislation is going to be argued in court, and the evidence for “climate crisis” becomes less persuasive with time. As Hot Air’s Beege Welborn notes, “discovery is going to be fun“.
+Not only is New York State – and Vermont, with their similar May 2024 bill – going to have to directly tie the fossil fuel industry (that still drives some 81% of our power generations) to be the cause of “climate change,” they are also going to have to prove that the fossil fuel industry is responsible for extreme events caused by “climate change,” a charge the data doesn’t begin to support.
+They are going to have to prove events are “more extreme” and what do they mean by that? If they really just mean “more expensive” because more people/structures/infrastructure are impacted than was there 20 years ago, how are the fossil fuel companies responsible for population growth and sprawl?
+Donations tax deductible to the full extent allowed by law.</t>
+  </si>
+  <si>
+    <t>2024-12-29 16:07:30</t>
+  </si>
+  <si>
+    <t>紐約州長Kathy Hochul簽署一項法律，強制能源公司資助「氣候變化超級基金」，每年支付30億美元，為期25年，總計750億美元。此舉旨在應對氣候變遷造成的極端天氣事件，但引發能源公司及部分人士的批評，認為此法案基於偽科學，並將成本轉嫁給消費者。紐約州目前面臨財政赤字和非法移民問題，此舉被指為轉嫁財政負擔。能源公司已表示將評估未來選項，並預計此法案將面臨法律挑戰。</t>
+  </si>
+  <si>
+    <t>NY Gov. Kathy Hochul Signs Law Forcing Energy Companies to Fund “Climate Change Superfund”.  The Climate Change Superfund Act mandates that companies responsible for carbon emissions between 2000 and 2024 pay about $3 billion annually for 25 years. Governor Hochul stated that New Yorkers are increasingly burdened with billions of dollars in consequences due to polluters.  The American Petroleum Institute said the legislation is a punitive new fee and they are evaluating their options. This legislation is going to be argued in court.</t>
+  </si>
+  <si>
+    <t>KathyHochul,紐約州,氣候變化超級基金,能源公司,石油公司,碳排放,氣候變遷,極端天氣,財政赤字,非法移民,美國石油協會,法律訴訟,Superfund,碳稅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">為氣候變遷問題提供巨額資金，有助於應對極端天氣和環境問題。
+可能迫使能源公司承擔更多環境責任，推動其減少碳排放。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基於偽科學的論述，缺乏充分的科學依據，可能造成資源浪費。
+可能將成本轉嫁給消費者，導致能源價格上漲，影響民生。
+可能面臨法律挑戰，最終無法成功執行。
+忽略了紐約州本身面臨的財政赤字和非法移民問題，轉嫁責任。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若能有效執行，可改善紐約州的環境狀況，提升民眾生活品質。
+可促進能源產業轉型，推動綠色能源發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能源公司可能採取法律行動，挑戰此法案的合法性。
+可能加劇社會矛盾，引發民眾抗議。
+可能影響紐約州的經濟發展，造成投資減少。
+若無法有效執行，將浪費大量公帑。
+</t>
+  </si>
+  <si>
+    <t>Pakistan’s first ever Carbon Market Policy launched</t>
+  </si>
+  <si>
+    <t>https://arynews.tv/pakistans-first-ever-carbon-market-policy-launched/</t>
+  </si>
+  <si>
+    <t>ARY NewsISLAMABAD: In a groundbreaking move to combat climate change, the Federal Cabinet has approved Pakistan's first-ever Carbon Market Policy.18 小時前</t>
+  </si>
+  <si>
+    <t>.Pakistan’s first ever Carbon Market Policy launched
+ISLAMABAD: In a groundbreaking move to combat climate change, the Federal Cabinet has approved Pakistan’s first-ever Carbon Market Policy.
+The policy, spearheaded by the Ministry of Climate Change and Environmental Coordination, is a bold step toward achieving the country’s climate and development goals while aligning with global efforts under the Paris Agreement.
+The Carbon Market Policy provides a comprehensive framework to operationalize carbon markets in Pakistan, creating opportunities for emissions reductions across sectors such as energy, agriculture, waste management, and forestry.
+According to Climate Ministry Spokesperson, the initiative aims to attract both domestic and international investments while ensuring social equity and environmental integrity.
+The Ministry highlighted that the policy is rooted in three pillars: environmental integrity, economic development, and equitable benefit sharing.
+These priorities ensure that projects under the carbon market generate real, verifiable emission reductions and deliver economic and social benefits for communities.
+The approval process has been made simple and efficient to attract investors, with minimal fees.
+A Corresponding Adjustment Fee (CAF) will allocate 12% of net revenues to provincial and national climate funds, while only 5% of credits generated will be adjusted toward Pakistan’s voluntary climate commitments.
+The policy is supported by international organizations such as USAID, World Bank, UNEP, and GIZ, which are aiding Pakistan in building carbon market regulations, a carbon registry, and a pipeline of projects. These partnerships are expected to mobilize significant capital and expertise to turn the policy into impactful actions for climate resilience.
+Federal officials emphasized that the policy will channel investments into sectors with high emissions reduction potential, foster the deployment of clean technologies, and contribute to achieving Pakistan’s Nationally Determined Contributions (NDCs).
+With this policy, Pakistan has extended an invitation to global carbon market players to collaborate in developing projects that support national development, uplift local communities, and contribute to a sustainable low-carbon economy.
+“This policy marks a decisive step forward for Pakistan’s climate ambition. It’s a call to action for both domestic and global partners to join hands in creating a resilient, low-carbon future for Pakistan,” stated the ministry spokesperson.
+As one of the most climate-vulnerable nations, Pakistan’s proactive approach through its Carbon Market Policy could set a benchmark for other developing nations striving for sustainable growth and climate action.
+RELATED ARTICLESMORE FROM AUTHOR
+Kamran Tessori announces grand fireworks at Governor House on New Year’s eve
+PM offers sympathies for loss of lives in South Korea plane crash
+IFC, local banks to invest $52.2mn for tyre production in Pakistan</t>
+  </si>
+  <si>
+    <t>2024-12-29 16:07:54</t>
+  </si>
+  <si>
+    <t>巴基斯坦聯邦內閣批准了該國首個碳市場政策，旨在應對氣候變化，實現其氣候和發展目標，並與《巴黎協定》下的全球努力保持一致。該政策由氣候變化和環境協調部牽頭，為在巴基斯坦運作碳市場提供了一個綜合框架，為能源、農業、廢物管理和林業等部門的減排創造機會。該政策的三大支柱是環境完整性、經濟發展和公平利益分享，並獲得了美國國際開發署、世界銀行、聯合國環境規劃署和德國國際合作機構等國際組織的支持。</t>
+  </si>
+  <si>
+    <t>Pakistan’s first ever Carbon Market Policy launched. The policy provides a framework to operationalize carbon markets, creating emissions reduction opportunities.  It aims to attract domestic and international investments while ensuring social equity and environmental integrity. The policy is rooted in environmental integrity, economic development, and equitable benefit sharing.  A Corresponding Adjustment Fee (CAF) will allocate 12% of net revenues to climate funds.  International organizations are supporting the policy. The policy will channel investments into sectors with high emissions reduction potential and contribute to achieving Pakistan’s Nationally Determined Contributions (NDCs).  Pakistan invites global carbon market players to collaborate.</t>
+  </si>
+  <si>
+    <t>巴基斯坦、碳市場政策、氣候變化、減排、巴黎協定、環境完整性、經濟發展、公平利益分享、美國國際開發署(USAID)、世界銀行、聯合國環境規劃署(UNEP)、德國國際合作機構(GIZ)、投資、可持續發展、低碳經濟、NationallyDeterminedContributions(NDCs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提供一個綜合框架，可在巴基斯坦運作碳市場，創造減排機會。
+吸引國內外投資，促進經濟發展。
+確保社會公平與環境完整性，兼顧社會效益。
+得到國際組織的支持，有助於獲得資金和技術援助。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政策的有效性取決於執行和監管。
+可能面臨阻礙減排的政治或經濟因素。
+需要建立有效的碳登記和項目管道。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引國際投資，促進低碳技術的發展和部署。
+創造就業機會，提升當地社區。
+為其他發展中國家提供借鑒，推動全球氣候行動。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺乏有效的監管機制，可能導致碳交易的欺詐行為。
+碳市場價格波動，可能影響投資者的意願。
+巴基斯坦的政治和經濟不穩定，可能影響政策的執行。
+</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2025 Brings Price Hikes for Gasoline, Cigarettes, and These Sodas—Here's What You'll Pay</t>
+  </si>
+  <si>
+    <t>https://www.enpareja.com/en/news/2025-brings-price-hikes-for-gasoline-cigarettes-and-these-sodasheres-what-youll-pay-20241228-0040.html</t>
+  </si>
+  <si>
+    <t>En ParejaGet ready for 2025! Prices for gasoline, cigarettes, and sodas are going up. Here's what you need to know about the new costs.15 小時前</t>
+  </si>
+  <si>
+    <t>JavaScript is disabled
+In order to continue, we need to verify that you're not a robot. This requires JavaScript. Enable JavaScript and then reload the page.</t>
+  </si>
+  <si>
+    <t>2024-12-29 18:32:24</t>
   </si>
 </sst>
 </file>
@@ -5409,7 +6030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5530,54 +6151,54 @@
         <v>36</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="K3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="L3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="M3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="N3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="O3" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="O3" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="P3" t="s" s="0">
         <v>34</v>
@@ -5589,7 +6210,7 @@
         <v>53</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -5636,7 +6257,7 @@
         <v>67</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>68</v>
@@ -5648,7 +6269,7 @@
         <v>70</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -5704,66 +6325,66 @@
         <v>69</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
         <v>35</v>
@@ -5771,61 +6392,61 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -5881,10 +6502,10 @@
         <v>130</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -5928,22 +6549,22 @@
         <v>136</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -5990,95 +6611,95 @@
         <v>150</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>151</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>134</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>136</v>
@@ -6105,125 +6726,125 @@
         <v>136</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s" s="0">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O14" t="s" s="0">
         <v>35</v>
@@ -6232,30 +6853,30 @@
         <v>34</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="R14" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S14" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>134</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>136</v>
@@ -6282,420 +6903,420 @@
         <v>136</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O16" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s" s="0">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="R16" t="s" s="0">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="S16" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q17" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R17" t="s" s="0">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q18" t="s" s="0">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="R18" t="s" s="0">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="S18" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" t="s" s="0">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="R19" t="s" s="0">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="S19" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q20" t="s" s="0">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="R20" t="s" s="0">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P21" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q21" t="s" s="0">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s" s="0">
         <v>36</v>
       </c>
       <c r="S21" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O22" t="s" s="0">
         <v>35</v>
@@ -6704,89 +7325,89 @@
         <v>130</v>
       </c>
       <c r="Q22" t="s" s="0">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="R22" t="s" s="0">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="S22" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M23" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O23" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P23" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q23" t="s" s="0">
         <v>151</v>
       </c>
       <c r="R23" t="s" s="0">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="S23" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>136</v>
@@ -6813,66 +7434,66 @@
         <v>136</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="O25" t="s" s="0">
         <v>35</v>
@@ -6881,57 +7502,57 @@
         <v>34</v>
       </c>
       <c r="Q25" t="s" s="0">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="R25" t="s" s="0">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="S25" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O26" t="s" s="0">
         <v>85</v>
@@ -6943,7 +7564,7 @@
         <v>35</v>
       </c>
       <c r="R26" t="s" s="0">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="S26" t="s" s="0">
         <v>35</v>
@@ -6951,46 +7572,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O27" t="s" s="0">
         <v>35</v>
@@ -6999,175 +7620,175 @@
         <v>34</v>
       </c>
       <c r="Q27" t="s" s="0">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="R27" t="s" s="0">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="S27" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C28" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="N28" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="Q28" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>364</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="I28" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="J28" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="K28" t="s" s="0">
-        <v>368</v>
-      </c>
-      <c r="L28" t="s" s="0">
-        <v>369</v>
-      </c>
-      <c r="M28" t="s" s="0">
-        <v>370</v>
-      </c>
-      <c r="N28" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="O28" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="P28" t="s" s="0">
-        <v>260</v>
-      </c>
-      <c r="Q28" t="s" s="0">
-        <v>167</v>
-      </c>
       <c r="R28" t="s" s="0">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="S28" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M29" t="s" s="0">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O29" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P29" t="s" s="0">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q29" t="s" s="0">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="R29" t="s" s="0">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="S29" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M30" t="s" s="0">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="O30" t="s" s="0">
         <v>33</v>
@@ -7176,57 +7797,57 @@
         <v>34</v>
       </c>
       <c r="Q30" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R30" t="s" s="0">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M31" t="s" s="0">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="O31" t="s" s="0">
         <v>33</v>
@@ -7235,57 +7856,57 @@
         <v>34</v>
       </c>
       <c r="Q31" t="s" s="0">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="R31" t="s" s="0">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="S31" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M32" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N32" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O32" t="s" s="0">
         <v>35</v>
@@ -7294,113 +7915,113 @@
         <v>34</v>
       </c>
       <c r="Q32" t="s" s="0">
-        <v>428</v>
+        <v>262</v>
       </c>
       <c r="R32" t="s" s="0">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="S32" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M33" t="s" s="0">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="N33" t="s" s="0">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="O33" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P33" t="s" s="0">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="Q33" t="s" s="0">
         <v>130</v>
       </c>
       <c r="R33" t="s" s="0">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S33" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L34" t="s" s="0">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M34" t="s" s="0">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N34" t="s" s="0">
         <v>84</v>
@@ -7412,57 +8033,57 @@
         <v>34</v>
       </c>
       <c r="Q34" t="s" s="0">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="R34" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="S34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L35" t="s" s="0">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M35" t="s" s="0">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N35" t="s" s="0">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="O35" t="s" s="0">
         <v>35</v>
@@ -7471,30 +8092,30 @@
         <v>34</v>
       </c>
       <c r="Q35" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R35" t="s" s="0">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="S35" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>136</v>
@@ -7521,157 +8142,157 @@
         <v>136</v>
       </c>
       <c r="N36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S36" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L37" t="s" s="0">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M37" t="s" s="0">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N37" t="s" s="0">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="O37" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P37" t="s" s="0">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="Q37" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R37" t="s" s="0">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="S37" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L38" t="s" s="0">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M38" t="s" s="0">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N38" t="s" s="0">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="O38" t="s" s="0">
         <v>85</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="Q38" t="s" s="0">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="R38" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="S38" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>136</v>
@@ -7698,39 +8319,39 @@
         <v>136</v>
       </c>
       <c r="N39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S39" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>136</v>
@@ -7757,66 +8378,66 @@
         <v>136</v>
       </c>
       <c r="N40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S40" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F41" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M41" t="s" s="0">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="N41" t="s" s="0">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="O41" t="s" s="0">
         <v>85</v>
@@ -7828,54 +8449,54 @@
         <v>129</v>
       </c>
       <c r="R41" t="s" s="0">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S41" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>120</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M42" t="s" s="0">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>332</v>
+        <v>537</v>
       </c>
       <c r="O42" t="s" s="0">
         <v>33</v>
@@ -7884,116 +8505,116 @@
         <v>34</v>
       </c>
       <c r="Q42" t="s" s="0">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="R42" t="s" s="0">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="S42" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M43" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="O43" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P43" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q43" t="s" s="0">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="R43" t="s" s="0">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="S43" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M44" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="N44" t="s" s="0">
-        <v>561</v>
+        <v>360</v>
       </c>
       <c r="O44" t="s" s="0">
         <v>33</v>
@@ -8002,116 +8623,116 @@
         <v>34</v>
       </c>
       <c r="Q44" t="s" s="0">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="R44" t="s" s="0">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="S44" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M45" t="s" s="0">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="O45" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P45" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q45" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="R45" t="s" s="0">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="S45" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M46" t="s" s="0">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="N46" t="s" s="0">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="O46" t="s" s="0">
         <v>33</v>
@@ -8120,175 +8741,175 @@
         <v>34</v>
       </c>
       <c r="Q46" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R46" t="s" s="0">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="S46" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M47" t="s" s="0">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>150</v>
+        <v>605</v>
       </c>
       <c r="O47" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P47" t="s" s="0">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="Q47" t="s" s="0">
-        <v>485</v>
+        <v>361</v>
       </c>
       <c r="R47" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="S47" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M48" t="s" s="0">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="N48" t="s" s="0">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="O48" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P48" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q48" t="s" s="0">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="R48" t="s" s="0">
         <v>36</v>
       </c>
       <c r="S48" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M49" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="N49" t="s" s="0">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>33</v>
@@ -8297,57 +8918,57 @@
         <v>34</v>
       </c>
       <c r="Q49" t="s" s="0">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="R49" t="s" s="0">
-        <v>52</v>
+        <v>631</v>
       </c>
       <c r="S49" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M50" t="s" s="0">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="O50" t="s" s="0">
         <v>33</v>
@@ -8356,116 +8977,116 @@
         <v>34</v>
       </c>
       <c r="Q50" t="s" s="0">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="R50" t="s" s="0">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="S50" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="L51" t="s" s="0">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="M51" t="s" s="0">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="O51" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P51" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q51" t="s" s="0">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="R51" t="s" s="0">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="S51" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="F52" t="s" s="0">
         <v>120</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M52" t="s" s="0">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="N52" t="s" s="0">
-        <v>200</v>
+        <v>669</v>
       </c>
       <c r="O52" t="s" s="0">
         <v>33</v>
@@ -8474,116 +9095,116 @@
         <v>34</v>
       </c>
       <c r="Q52" t="s" s="0">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="R52" t="s" s="0">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="S52" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="L53" t="s" s="0">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="M53" t="s" s="0">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="N53" t="s" s="0">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="O53" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P53" t="s" s="0">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="Q53" t="s" s="0">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="R53" t="s" s="0">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="S53" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F54" t="s" s="0">
         <v>120</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="M54" t="s" s="0">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="N54" t="s" s="0">
-        <v>358</v>
+        <v>696</v>
       </c>
       <c r="O54" t="s" s="0">
         <v>33</v>
@@ -8595,125 +9216,125 @@
         <v>68</v>
       </c>
       <c r="R54" t="s" s="0">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="S54" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="M55" t="s" s="0">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="N55" t="s" s="0">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="O55" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P55" t="s" s="0">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="Q55" t="s" s="0">
-        <v>428</v>
+        <v>50</v>
       </c>
       <c r="R55" t="s" s="0">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="S55" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="M56" t="s" s="0">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="O56" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P56" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q56" t="s" s="0">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="R56" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="S56" t="s" s="0">
         <v>35</v>
@@ -8721,105 +9342,105 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="L57" t="s" s="0">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="M57" t="s" s="0">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="O57" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P57" t="s" s="0">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="Q57" t="s" s="0">
         <v>129</v>
       </c>
       <c r="R57" t="s" s="0">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="S57" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="L58" t="s" s="0">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="M58" t="s" s="0">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="N58" t="s" s="0">
-        <v>386</v>
+        <v>748</v>
       </c>
       <c r="O58" t="s" s="0">
         <v>35</v>
@@ -8828,57 +9449,57 @@
         <v>34</v>
       </c>
       <c r="Q58" t="s" s="0">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="R58" t="s" s="0">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="S58" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="I59" t="s" s="0">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="K59" t="s" s="0">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="L59" t="s" s="0">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="M59" t="s" s="0">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="N59" t="s" s="0">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="O59" t="s" s="0">
         <v>35</v>
@@ -8887,30 +9508,30 @@
         <v>34</v>
       </c>
       <c r="Q59" t="s" s="0">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="R59" t="s" s="0">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="S59" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>134</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="F60" t="s" s="0">
         <v>136</v>
@@ -8937,243 +9558,243 @@
         <v>136</v>
       </c>
       <c r="N60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S60" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="L61" t="s" s="0">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="M61" t="s" s="0">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="N61" t="s" s="0">
-        <v>371</v>
+        <v>722</v>
       </c>
       <c r="O61" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P61" t="s" s="0">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="Q61" t="s" s="0">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="R61" t="s" s="0">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="S61" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="L62" t="s" s="0">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="M62" t="s" s="0">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="N62" t="s" s="0">
-        <v>167</v>
+        <v>789</v>
       </c>
       <c r="O62" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P62" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q62" t="s" s="0">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="R62" t="s" s="0">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S62" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="L63" t="s" s="0">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="M63" t="s" s="0">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="N63" t="s" s="0">
-        <v>313</v>
+        <v>802</v>
       </c>
       <c r="O63" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P63" t="s" s="0">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="Q63" t="s" s="0">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="R63" t="s" s="0">
-        <v>53</v>
+        <v>578</v>
       </c>
       <c r="S63" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="F64" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="L64" t="s" s="0">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="M64" t="s" s="0">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="N64" t="s" s="0">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="O64" t="s" s="0">
         <v>85</v>
@@ -9182,57 +9803,57 @@
         <v>151</v>
       </c>
       <c r="Q64" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R64" t="s" s="0">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="S64" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="F65" t="s" s="0">
         <v>120</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="L65" t="s" s="0">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="M65" t="s" s="0">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="N65" t="s" s="0">
-        <v>427</v>
+        <v>829</v>
       </c>
       <c r="O65" t="s" s="0">
         <v>33</v>
@@ -9241,30 +9862,30 @@
         <v>34</v>
       </c>
       <c r="Q65" t="s" s="0">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="R65" t="s" s="0">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="S65" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>134</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="F66" t="s" s="0">
         <v>136</v>
@@ -9291,39 +9912,39 @@
         <v>136</v>
       </c>
       <c r="N66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S66" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="F67" t="s" s="0">
         <v>136</v>
@@ -9350,39 +9971,39 @@
         <v>136</v>
       </c>
       <c r="N67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S67" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>134</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="F68" t="s" s="0">
         <v>136</v>
@@ -9409,66 +10030,66 @@
         <v>136</v>
       </c>
       <c r="N68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S68" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="L69" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="M69" t="s" s="0">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="N69" t="s" s="0">
-        <v>844</v>
+        <v>201</v>
       </c>
       <c r="O69" t="s" s="0">
         <v>35</v>
@@ -9477,89 +10098,89 @@
         <v>34</v>
       </c>
       <c r="Q69" t="s" s="0">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="R69" t="s" s="0">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="S69" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="F70" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="L70" t="s" s="0">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="M70" t="s" s="0">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="N70" t="s" s="0">
-        <v>300</v>
+        <v>867</v>
       </c>
       <c r="O70" t="s" s="0">
         <v>85</v>
       </c>
       <c r="P70" t="s" s="0">
-        <v>857</v>
+        <v>803</v>
       </c>
       <c r="Q70" t="s" s="0">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="R70" t="s" s="0">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="S70" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="F71" t="s" s="0">
         <v>136</v>
@@ -9586,78 +10207,78 @@
         <v>136</v>
       </c>
       <c r="N71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S71" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="K72" t="s" s="0">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="L72" t="s" s="0">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="M72" t="s" s="0">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="N72" t="s" s="0">
-        <v>547</v>
+        <v>886</v>
       </c>
       <c r="O72" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P72" t="s" s="0">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="Q72" t="s" s="0">
-        <v>485</v>
+        <v>168</v>
       </c>
       <c r="R72" t="s" s="0">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="S72" t="s" s="0">
         <v>35</v>
@@ -9665,78 +10286,78 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="L73" t="s" s="0">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="M73" t="s" s="0">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="N73" t="s" s="0">
-        <v>428</v>
+        <v>69</v>
       </c>
       <c r="O73" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P73" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Q73" t="s" s="0">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="R73" t="s" s="0">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="S73" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="F74" t="s" s="0">
         <v>136</v>
@@ -9763,39 +10384,39 @@
         <v>136</v>
       </c>
       <c r="N74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S74" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="F75" t="s" s="0">
         <v>136</v>
@@ -9822,22 +10443,494 @@
         <v>136</v>
       </c>
       <c r="N75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S75" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="L76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M76" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="N76" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O76" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P76" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q76" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R76" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S76" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="K77" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="L77" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="M77" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="N77" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="O77" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P77" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="Q77" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="R77" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="S77" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>932</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="K78" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="L78" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="M78" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="N78" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="O78" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P78" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q78" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="R78" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S78" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>937</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="K79" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="L79" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="M79" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="N79" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="O79" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P79" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q79" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R79" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S79" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>950</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="K80" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="L80" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="M80" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="N80" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="O80" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P80" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q80" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="R80" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="S80" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="K81" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="L81" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="M81" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="N81" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="O81" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P81" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q81" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="R81" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="S81" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="K82" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="L82" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="M82" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="N82" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="O82" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P82" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="Q82" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="R82" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="S82" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="L83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M83" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="N83" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O83" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P83" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q83" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R83" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S83" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
